--- a/src/main/resources/xlsx-templates/mas-report-4a.xlsx
+++ b/src/main/resources/xlsx-templates/mas-report-4a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProject\dtc-portal-api\src\main\resources\xlsx-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProject\dtc-settlement-engine\src\main\resources\xlsx-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7563C197-404B-4787-90C4-6E9CAEB1CDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC639EEF-7D71-4BA7-87AE-6CC18B7D28DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4A Summary" sheetId="5" r:id="rId1"/>
@@ -68,6 +68,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -380,9 +383,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -398,22 +401,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -431,17 +428,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,7 +664,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -670,32 +673,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -712,34 +715,26 @@
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1001</v>
-      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10">
-        <v>2.99</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2000</v>
-      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
